--- a/biology/Histoire de la zoologie et de la botanique/Geneviève_Termier/Geneviève_Termier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Geneviève_Termier/Geneviève_Termier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Termier</t>
+          <t>Geneviève_Termier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geneviève Termier (2 avril 1917 à Paris - 27 mai 2005 à Saint-Rémy-lès-Chevreuse[1]) est une paléontologue française et évolutionniste.
-Elle occupe un poste de directrice de recherche au CNRS[2].
-Elle est spécialiste des gastéropodes et étudie les brachiopodes permiens du Sud-Est asiatique. Elle et son mari, Henri Termier, sont considérés comme parmi les plus grands paléontologues français du XXe siècle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geneviève Termier (2 avril 1917 à Paris - 27 mai 2005 à Saint-Rémy-lès-Chevreuse) est une paléontologue française et évolutionniste.
+Elle occupe un poste de directrice de recherche au CNRS.
+Elle est spécialiste des gastéropodes et étudie les brachiopodes permiens du Sud-Est asiatique. Elle et son mari, Henri Termier, sont considérés comme parmi les plus grands paléontologues français du XXe siècle.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Termier</t>
+          <t>Geneviève_Termier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geneviève Termier montre rapidement un talent artistique qui la mena successivement du dessin scientifique (à l'échelle, puis en réduisant les proportions) à l'observation minutieuse des fossiles qui est la première étape vers leur identification (ou détermination). C'est Charles Jacob, qui la remarque et la fait rentrer à la Sorbonne en 1937 où elle commence ses recherches paléontologiques par l'étude d'un des plus anciens genres de gastéropode : Pleurotomaria. Elle associe la paléontologie et l'évolution pour restituer l'évolution des gastéropodes en utilisant la notion de "grade"[2]. Elle propose la première classification des gastéropodes[3].
-En 1942, Geneviève Termier va au Maroc où elle rencontre son mari Henri, chef du service géologique du Maroc[4]. Leur fils Michel nait 3 ans plus tard.
-Geneviève Termier soutient sa thèse intitulée "les Gastéropodes mésozoïques de la région libanaise" en 1939[4].
-À partir de 1942 pendant leur séjour au Maroc, (à Adrar n Deren) Geneviève et Henri Termier décident de travailler ensemble le plus possible. Geneviève maîtrise la paléontologie. Henri gère la stratigraphie et la pétrographie. C'est à ce moment-là que Geneviève se familiarise avec les fossiles paléozoïques du Maroc ainsi qu'avec la pétrographie. Ils s'intéressent particulièrement au Massif du Tichka. Lors de leurs différents périples visant à étudier le Massif du Tichka, Geneviève générait toujours des réactions de stupéfactions et d'amusement de la part des autochtones qui n'était, à l'époque, pas habitués à croiser des européennes en raison de la pauvreté, du manque de routes et de confort qui faisait obstacle au tourisme. Elle savait très bien lire et écrire, ce qui, à l'époque et  dans la région était encore une compétence "masculine". Ils la considérait comme une "mohindissa" « "travaillant dans le bled comme le "mohindiss" son mari" »[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geneviève Termier montre rapidement un talent artistique qui la mena successivement du dessin scientifique (à l'échelle, puis en réduisant les proportions) à l'observation minutieuse des fossiles qui est la première étape vers leur identification (ou détermination). C'est Charles Jacob, qui la remarque et la fait rentrer à la Sorbonne en 1937 où elle commence ses recherches paléontologiques par l'étude d'un des plus anciens genres de gastéropode : Pleurotomaria. Elle associe la paléontologie et l'évolution pour restituer l'évolution des gastéropodes en utilisant la notion de "grade". Elle propose la première classification des gastéropodes.
+En 1942, Geneviève Termier va au Maroc où elle rencontre son mari Henri, chef du service géologique du Maroc. Leur fils Michel nait 3 ans plus tard.
+Geneviève Termier soutient sa thèse intitulée "les Gastéropodes mésozoïques de la région libanaise" en 1939.
+À partir de 1942 pendant leur séjour au Maroc, (à Adrar n Deren) Geneviève et Henri Termier décident de travailler ensemble le plus possible. Geneviève maîtrise la paléontologie. Henri gère la stratigraphie et la pétrographie. C'est à ce moment-là que Geneviève se familiarise avec les fossiles paléozoïques du Maroc ainsi qu'avec la pétrographie. Ils s'intéressent particulièrement au Massif du Tichka. Lors de leurs différents périples visant à étudier le Massif du Tichka, Geneviève générait toujours des réactions de stupéfactions et d'amusement de la part des autochtones qui n'était, à l'époque, pas habitués à croiser des européennes en raison de la pauvreté, du manque de routes et de confort qui faisait obstacle au tourisme. Elle savait très bien lire et écrire, ce qui, à l'époque et  dans la région était encore une compétence "masculine". Ils la considérait comme une "mohindissa" « "travaillant dans le bled comme le "mohindiss" son mari" »
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genevi%C3%A8ve_Termier</t>
+          <t>Geneviève_Termier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Publications principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Geneviève et Henri Termier, Paléontologie marocaine, 5 volumes, 1950
 Geneviève et Henri Termier, Histoire géologique de la biosphère : la vie et les sédiments dans les géographies successives, 1962
